--- a/整合結果/EPU匯出結果/2025-06-05/2025-06-05_自由時報_EPU檢查結果.xlsx
+++ b/整合結果/EPU匯出結果/2025-06-05/2025-06-05_自由時報_EPU檢查結果.xlsx
@@ -168,12 +168,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Sheet1'!$A$10:$A$11</f>
+              <f>'Sheet1'!$A$16:$A$17</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$B$10:$B$11</f>
+              <f>'Sheet1'!$B$16:$B$17</f>
             </numRef>
           </val>
         </ser>
@@ -249,7 +249,7 @@
     <from>
       <col>3</col>
       <colOff>0</colOff>
-      <row>9</row>
+      <row>15</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -559,7 +559,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -786,40 +786,222 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-06-05</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>自由時報_財經</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2025-06-05_0859_自由時報_財經_黃金高點下殺後又上漲 「短期走勢」專家全說了.txt</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>✔ 是</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>ISM、服務業、美元、商業、貿易、經濟、製造業、製造業指數</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Fed、非農就業、降息、聯準會</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>不確定、不確定性、地緣政治、波動、疲軟、貿易緊張、緊張</t>
+        </is>
+      </c>
+    </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>統計摘要</t>
+          <t>2025-06-05</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>自由時報_財經</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2025-06-05_1038_自由時報_財經_北北桃竹蛋黃區新案開價 仍站在高崗上.txt</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>✘ 否</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>房市、房價、經濟</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>✔ 符合 EPU</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
+          <t>2025-06-05</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>自由時報_財經</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2025-06-05_1231_自由時報_財經_新北蛋黃區住不起！永和預售屋成交均價每坪逾92萬.txt</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>✘ 否</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>經濟</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>✘ 不符合 EPU</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
+          <t>2025-06-05</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>自由時報_財經</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2025-06-05_1532_自由時報_財經_房地合一稅稅率20％貢獻424億稅收 佔比逾51％.txt</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>✘ 否</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>不動產、房市、經濟</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>2025-06-05</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>自由時報_財經</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2025-06-05_1729_自由時報_財經_吸金神器！0050規模突破6000億元、再創新高.txt</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>✘ 否</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>台股、經濟</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>反彈</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-06-05</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>自由時報_財經</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2025-06-05_1822_自由時報_財經_代銷業者喊每坪降20萬？興富發：「降價」議題只是銷售策略.txt</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>✘ 否</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>外資、房市、經濟</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>央行、信用管制、選擇性信用管制</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>統計摘要</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>✔ 符合 EPU</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>✘ 不符合 EPU</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
           <t>EPU 比例</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>16.67%</t>
         </is>
